--- a/EffortEstimation/Planning/Planning.xlsx
+++ b/EffortEstimation/Planning/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easter-release\project-proposal-allround-manager-prototype-name\EffortEstimation\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CFE7C6-CB7F-4115-946E-5B979FE5005D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC79BC50-A4FB-4F91-87D8-B6E739F4411C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7200" xr2:uid="{4E4733F3-C735-497C-8148-182F3D665E58}"/>
   </bookViews>
@@ -31,23 +31,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Planning and week goals</t>
   </si>
   <si>
-    <t>22.4 - 28.4</t>
-  </si>
-  <si>
     <t>Building the basic set-up of the eventViewPage</t>
   </si>
   <si>
     <t>Create the Databasestructure how to store the participants of the reffering event</t>
   </si>
   <si>
-    <t>29.4 - 5.5</t>
-  </si>
-  <si>
     <t>Differents User can join an event</t>
   </si>
   <si>
@@ -67,6 +61,66 @@
   </si>
   <si>
     <t>Create Events</t>
+  </si>
+  <si>
+    <t>22.4 - 28.4 postpone to 29.4 - 5.5 because the team leader was absent.</t>
+  </si>
+  <si>
+    <t>29.4 - 5.5 new Date 6.5 - 13.5</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Partly</t>
+  </si>
+  <si>
+    <t>Sprint 9/5</t>
+  </si>
+  <si>
+    <t>Sprint 16/5</t>
+  </si>
+  <si>
+    <t>Sprint 23/5</t>
+  </si>
+  <si>
+    <t>Sprint 30/5</t>
+  </si>
+  <si>
+    <t>Sprint 6/6</t>
+  </si>
+  <si>
+    <t>Sprint 13/6</t>
+  </si>
+  <si>
+    <t>That the user is able to go on the event-view to the referent event.</t>
+  </si>
+  <si>
+    <t>The event admin should be able to invite people</t>
+  </si>
+  <si>
+    <t>Editing an event on runtime</t>
+  </si>
+  <si>
+    <t>User can edit his profile</t>
+  </si>
+  <si>
+    <t>See at the notification area when the admin release some important information about an event.</t>
+  </si>
+  <si>
+    <t>Comuntication between user via backend.</t>
+  </si>
+  <si>
+    <t>User can see his settings that he typed at his registation</t>
+  </si>
+  <si>
+    <t>Get some style into the front-end.</t>
+  </si>
+  <si>
+    <t>Working to build up the group area. That should include to create,join,leave and edit an Group. Also events can be create in a group.</t>
+  </si>
+  <si>
+    <t>Compliting the full program usability and fixing bugs(hopefully not)</t>
   </si>
 </sst>
 </file>
@@ -82,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +146,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -108,9 +168,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -425,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F69203A-D2CE-4DC9-8477-E6B0AC0A2E70}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,64 +497,156 @@
     <col min="1" max="1" width="72.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/EffortEstimation/Planning/Planning.xlsx
+++ b/EffortEstimation/Planning/Planning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easter-release\project-proposal-allround-manager-prototype-name\EffortEstimation\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\project-proposal-allround-manager-prototype-name\EffortEstimation\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F2D2D5-0D6D-4511-BAA2-6EFBC52C95F2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21082BCD-460A-4FF9-8374-9CB854BC9E48}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7200" xr2:uid="{4E4733F3-C735-497C-8148-182F3D665E58}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EffortEstimation/Planning/Planning.xlsx
+++ b/EffortEstimation/Planning/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\project-proposal-allround-manager-prototype-name\EffortEstimation\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21082BCD-460A-4FF9-8374-9CB854BC9E48}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEAAEE1-15F9-47BB-BDEE-6A6E0DF51429}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7200" xr2:uid="{4E4733F3-C735-497C-8148-182F3D665E58}"/>
   </bookViews>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F69203A-D2CE-4DC9-8477-E6B0AC0A2E70}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EffortEstimation/Planning/Planning.xlsx
+++ b/EffortEstimation/Planning/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\project-proposal-allround-manager-prototype-name\EffortEstimation\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEAAEE1-15F9-47BB-BDEE-6A6E0DF51429}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F8D48F-6DA7-4ABB-B6A3-D4FC9B9A054D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7200" xr2:uid="{4E4733F3-C735-497C-8148-182F3D665E58}"/>
   </bookViews>
@@ -503,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F69203A-D2CE-4DC9-8477-E6B0AC0A2E70}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
